--- a/Noteiras.xlsx
+++ b/Noteiras.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Classe</t>
+          <t>Class</t>
         </is>
       </c>
     </row>
